--- a/Project_Members.xlsx
+++ b/Project_Members.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20740" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>Data Science, Analytics</t>
+  </si>
+  <si>
+    <t>Madhavi Bharadwaj</t>
+  </si>
+  <si>
+    <t>Portland, OR, USA</t>
+  </si>
+  <si>
+    <t>wmadhavi@gmail.com</t>
+  </si>
+  <si>
+    <t>Data Science, Big Data, Clinical Informatics</t>
   </si>
 </sst>
 </file>
@@ -238,11 +250,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -582,20 +596,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
-    <col min="5" max="5" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" customWidth="1"/>
+    <col min="5" max="5" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -635,7 +649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -655,7 +669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -675,7 +689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -692,7 +706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -709,7 +723,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -726,7 +740,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -743,7 +757,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -763,7 +777,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -783,7 +797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
@@ -800,6 +814,26 @@
         <v>51</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -815,9 +849,10 @@
     <hyperlink ref="D9" r:id="rId8" display="mailto:lakshmibaskar@gmail.com"/>
     <hyperlink ref="D10" r:id="rId9"/>
     <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId11"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -832,7 +867,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -850,7 +885,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
